--- a/Today_News_20260205.xlsx
+++ b/Today_News_20260205.xlsx
@@ -14,99 +14,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
-  <si>
-    <t>新闻分类</t>
-  </si>
-  <si>
-    <t>核心内容摘要</t>
-  </si>
-  <si>
-    <t>参考链接/来源</t>
-  </si>
-  <si>
-    <t>世界政治</t>
-  </si>
-  <si>
-    <t>科技动态</t>
-  </si>
-  <si>
-    <t>商业经济</t>
-  </si>
-  <si>
-    <t>美国众议院通过支出法案，暂时结束为期三天的部分政府停摆；特朗普总统已签署该法案，资金将维持至2月13日。</t>
-  </si>
-  <si>
-    <t>特朗普与中国领导人就贸易及台湾局势进行讨论；中方重申立场并警告美方停止对台军售。</t>
-  </si>
-  <si>
-    <t>特朗普政府向北京及其他国家施压，要求进一步孤立伊朗以遏制其核野心；美伊将在阿曼举行核谈判。</t>
-  </si>
-  <si>
-    <t>法国当局搜查 X (前 Twitter) 办公室，调查 AI 聊天机器人 Grok 生成色情图像的案件。</t>
-  </si>
-  <si>
-    <t>西班牙计划禁止16岁以下儿童使用社交媒体，效仿澳大利亚、法国和丹麦的政策。</t>
-  </si>
-  <si>
-    <t>巴西与印度达成互惠协议，将访客签证有效期从5年延长至10年。</t>
-  </si>
-  <si>
-    <t>SpaceX 收购马斯克的 AI 公司 xAI，旨在结合星链卫星与 AI 技术推进轨道数据中心建设。</t>
-  </si>
-  <si>
-    <t>中国工信部针对开源 AI 智能体 OpenClaw 发布安全警报，警告部署不当可能导致网络攻击和数据泄露。</t>
-  </si>
-  <si>
-    <t>科技股显著下跌，交易员重新评估 AI 对行业收入的实际影响，微软、SAP 及 Salesforce 受到冲击。</t>
-  </si>
-  <si>
-    <t>印度云计算市场快速扩张，SaaS 成为增长最快的领域。</t>
-  </si>
-  <si>
-    <t>欧洲“二线”枢纽（如塔林、维尔纽斯）AI 初创企业激增，人均产出超过主要城市。</t>
-  </si>
-  <si>
-    <t>Fiskars 集团宣布全球裁员约310人并关闭美国配送中心，旨在每年节省2800万欧元成本。</t>
-  </si>
-  <si>
-    <t>Datavault AI 预计2026年收入将达到2亿美元，致力于通过 AI 在美国100多个城市实现数据变现。</t>
-  </si>
-  <si>
-    <t>欧元区通胀降至1.7%，低于欧洲央行2%的目标，加大了降息的可能性。</t>
-  </si>
-  <si>
-    <t>美国劳动力市场走软，ADP 报告新增就业仅2.2万人，远低于预期。</t>
-  </si>
-  <si>
-    <t>中国科技股正式进入熊市，恒生科技指数跌幅超过20%，因市场担心潜在的互联网服务税。</t>
-  </si>
-  <si>
-    <t>https://substack.com</t>
-  </si>
-  <si>
-    <t>https://wng.org</t>
-  </si>
-  <si>
-    <t>https://crownworldmobility.com</t>
-  </si>
-  <si>
-    <t>https://bez-kabli.pl</t>
-  </si>
-  <si>
-    <t>https://techfundingnews.com</t>
-  </si>
-  <si>
-    <t>https://fiskarsgroup.com</t>
-  </si>
-  <si>
-    <t>https://datavaultsite.com</t>
-  </si>
-  <si>
-    <t>https://riotimesonline.com</t>
-  </si>
-  <si>
-    <t>https://heygotrade.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>snippet</t>
+  </si>
+  <si>
+    <t>What is T20 Cricket? What to know for the 2026 World Cup in India</t>
+  </si>
+  <si>
+    <t>ICC Men's T20 World Cup 2026 format, teams, groups, venues, rules &amp; winners'...</t>
+  </si>
+  <si>
+    <t>2026 Premier League Darts Night 1 draw, match predictions and 3 storylines to...</t>
+  </si>
+  <si>
+    <t>Eileen Gu: The Winter Olympian who earns $23m a year — but just $100k of it from...</t>
+  </si>
+  <si>
+    <t>How to buy FIFA World Cup tickets after lottery draw: Latest availability,...</t>
+  </si>
+  <si>
+    <t>NASCAR schedule 2026: Dates, times, TV channels, live streams, winners for every...</t>
+  </si>
+  <si>
+    <t>Scotland v England, Six Nations 2026: When is it, odds and how to watch</t>
+  </si>
+  <si>
+    <t>‘Especially Tough’—Marc-Andre ter Stegen Issues Heart-Wrenching Statement After ...</t>
+  </si>
+  <si>
+    <t>What channel is the NASCAR Clash on today? Start time, TV schedule, live streams...</t>
+  </si>
+  <si>
+    <t>T20 World Cup 2026: Refugee swaps tapeball cricket for tournament</t>
+  </si>
+  <si>
+    <t>2026 World Cup schedule: Dates, times, stadiums all confirmed — Full details</t>
+  </si>
+  <si>
+    <t>'We have a short-sighted budget plan': Platte County residents question public...</t>
+  </si>
+  <si>
+    <t>Ice hockey at 2026 Winter Olympics: How it works, competition schedule</t>
+  </si>
+  <si>
+    <t>While Super Bowl spotlight shines, FIFA organizers gear up for World Cup in...</t>
+  </si>
+  <si>
+    <t>2026 Olympic Hockey Hub: Schedules, Rosters, Stories, Lists And More</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4yk9uIRp6CIBBNPQtDMD;_ylu=Y29sbwNncTEEcG9zAzEEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515197/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2ft20-cricket-know-2026-world-152554509.html%3ffr%3dsycsrp_catchall/RK=2/RS=hwCIEnIU205GBrH44XDkH2tPShM-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBHwDQtDMD;_ylu=Y29sbwNncTEEcG9zAzMEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fwww.bbc.com%2fsport%2fcricket%2farticles%2fcvgj5ngm0mdo/RK=2/RS=sOHSXUWJjbB0a5bbI7nKIlwFr_w-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBIgDQtDMD;_ylu=Y29sbwNncTEEcG9zAzQEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2f2026-premier-league-darts-night-022234787.html%3ffr%3dsycsrp_catchall/RK=2/RS=JKwTD0AAPkMZOjPNqfLjT3lclEA-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4yk9uIRp6CIBDdPQtDMD;_ylu=Y29sbwNncTEEcG9zAzQEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515197/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2feileen-gu-winter-olympian-earns-104607964.html%3ffr%3dsycsrp_catchall/RK=2/RS=.JQMT4toWlE442W4NZzCyEbs1oU-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBLQDQtDMD;_ylu=Y29sbwNncTEEcG9zAzgEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fwww.sportingnews.com%2fus%2ftickets%2fnews%2fbuy-fifa-world-cup-tickets-lottery-draw-availability-prices-2026%2f991aa93b1999c05cb00f1ca1/RK=2/RS=5rNcleQAp3BWVEcheYpWdKhvnio-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBHADQtDMD;_ylu=Y29sbwNncTEEcG9zAzIEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2fnascar-schedule-2026-dates-times-100001816.html%3ffr%3dsycsrp_catchall/RK=2/RS=9yQV1fLYLRd.6epnfiQMVouHdaQ-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4yk9uIRp6CIBFdPQtDMD;_ylu=Y29sbwNncTEEcG9zAzcEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515197/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2fscotland-v-england-six-nations-122837492.html%3ffr%3dsycsrp_catchall/RK=2/RS=7WZU_OOAllZR7HHHXPEN13R.DuY-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4yk9uIRp6CIBGNPQtDMD;_ylu=Y29sbwNncTEEcG9zAzgEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515197/RO=10/RU=https%3a%2f%2fwww.si.com%2fsoccer%2fmarc-andre-ter-stegen-heart-wrenching-statement-latest-injury/RK=2/RS=qvdsCSf6eaiTWBRa3iXPqDuP_a4-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBJQDQtDMD;_ylu=Y29sbwNncTEEcG9zAzUEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2fchannel-nascar-clash-today-start-072001526.html%3ffr%3dsycsrp_catchall/RK=2/RS=MaAGp8VfRiayQcDwY5Rr6kX9Jt0-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4yk9uIRp6CIBHtPQtDMD;_ylu=Y29sbwNncTEEcG9zAzEwBHZ0aWQDBHNlYwNzcg--/RV=2/RE=1771515197/RO=10/RU=https%3a%2f%2fwww.bbc.com%2fsport%2fcricket%2farticles%2fcy59xy3q9neo/RK=2/RS=no4vlEnyv2sCyxINoDfyVb16BQo-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBGQDQtDMD;_ylu=Y29sbwNncTEEcG9zAzEEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2f2026-world-cup-schedule-confirmed-175505823.html%3ffr%3dsycsrp_catchall/RK=2/RS=G3ca_xQAHsY69EpRsIBeHAJtvjc-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBKADQtDMD;_ylu=Y29sbwNncTEEcG9zAzYEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fwww.kshb.com%2fnews%2flocal-news%2fmissouri%2fplatte-county%2fwe-have-a-short-sighted-budget-plan-platte-county-residents-question-public-safety-funding-ahead-of-world-cup/RK=2/RS=QSihMROilokxysvfni4n42sHyvY-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBKgDQtDMD;_ylu=Y29sbwNncTEEcG9zAzcEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2fice-hockey-2026-winter-olympics-100118736.html%3ffr%3dsycsrp_catchall/RK=2/RS=Y1gnbjeHwn8EGXVXVDAIQkAPFto-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBLwDQtDMD;_ylu=Y29sbwNncTEEcG9zAzkEdnRpZAMEc2VjA3Ny/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2fwhile-super-bowl-spotlight-shines-131126730.html%3ffr%3dsycsrp_catchall/RK=2/RS=0DEyKVJ8cjfFgoWhinZMCkDOYd4-</t>
+  </si>
+  <si>
+    <t>https://r.search.yahoo.com/_ylt=Awrg4ylCuIRp6CIBMgDQtDMD;_ylu=Y29sbwNncTEEcG9zAzEwBHZ0aWQDBHNlYwNzcg--/RV=2/RE=1771515202/RO=10/RU=https%3a%2f%2fsports.yahoo.com%2farticles%2f2026-olympic-hockey-hub-schedules-150555002.html%3ffr%3dsycsrp_catchall/RK=2/RS=gpwGNLIfx41uQeC52INYa3W3c.Y-</t>
+  </si>
+  <si>
+    <t>USA TODAY Sports ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>BBC News</t>
+  </si>
+  <si>
+    <t>The Sporting News ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>The Athletic ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>Sporting News</t>
+  </si>
+  <si>
+    <t>The Telegraph ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>Sports Illustrated</t>
+  </si>
+  <si>
+    <t>NBC Sports ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>KSHB-TV Kansas City</t>
+  </si>
+  <si>
+    <t>WFXT ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>The Hockey News ·  via Yahoo Sports</t>
+  </si>
+  <si>
+    <t>Dead ball A dead ball is one from which no wickets can be taken, and runs cannot be scored. Saman...</t>
+  </si>
+  <si>
+    <t>A guide to the 2026 ICC Men's T20 World Cup in India and Sri Lanka, which begins on 7 February and...</t>
+  </si>
+  <si>
+    <t>He'll play Wales' Jonny Clayton, whom he beat last year at the 2025 World Cup. Quarterfinal 2: Luke...</t>
+  </si>
+  <si>
+    <t>The Athletic has live coverage of the 2026 Winter Olympics. An outlier lies among the list of Forbes...</t>
+  </si>
+  <si>
+    <t>The 2026 FIFA World Cup is almost here, marking a new era in soccer history. For a select number of fans, they'll join the history books from the stands at the tournament. There are still a ...</t>
+  </si>
+  <si>
+    <t>TNT, DIRECTV July 19 Window World 400 North Wilkesboro Speedway 7 p.m. TNT... Raceway 7 p.m. USA,...</t>
+  </si>
+  <si>
+    <t>The first ever international rugby match was played between Scotland and England and the old rivals ...</t>
+  </si>
+  <si>
+    <t>Marc-André ter Stegen said “the worst happened” when reflecting on the hamstring injury that has tak...</t>
+  </si>
+  <si>
+    <t>Three-and-a-half years ago, a teenager peered over a fence on Glasgow's Crow Road and told those...</t>
+  </si>
+  <si>
+    <t>MORE — 2026 World Cup hub | 2026 World Cup venues Below are all the details you need. 2026 World Cup...</t>
+  </si>
+  <si>
+    <t>Platte County is expected to serve as a major gateway during the 2026 World Cup, with KCI Airport located there. The concerns stem from recent budget debates where agencies like the sheriff's ...</t>
+  </si>
+  <si>
+    <t>The Soviet Union won nine medals overall and seven golds before dissolving in 1991. Olympics hockey...</t>
+  </si>
+  <si>
+    <t>While in San Francisco for Super...FIFA Boston Host Committee, to talk about why World Cup organizer...</t>
+  </si>
+  <si>
+    <t>Rosters Olympic Men's Hockey Stories 2026 Olympics: We've Been Waiting 10 Years For The McDavid......</t>
   </si>
 </sst>
 </file>
@@ -477,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,201 +577,237 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
